--- a/R/data_raw/160222_sorption_rawdata.xlsx
+++ b/R/data_raw/160222_sorption_rawdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katinkakrahn/Library/Mobile Documents/com~apple~CloudDocs/Documents/Skole/VOW/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katinkakrahn/Documents/MSc_Katinka/R/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A1DFDD-744A-6149-936E-7F5A853F1B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F98EB28-7AE7-5E44-A5F9-0DEFEE81798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12220" yWindow="-18580" windowWidth="23440" windowHeight="12860" xr2:uid="{0011F70E-2CB9-2B4A-84E4-C4323C879510}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{0011F70E-2CB9-2B4A-84E4-C4323C879510}"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="28">
   <si>
     <t>Conc_point</t>
   </si>
@@ -109,6 +109,18 @@
   <si>
     <t>Cs</t>
   </si>
+  <si>
+    <t>isotherm_binary</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>BC_sing</t>
+  </si>
+  <si>
+    <t>BC_mix</t>
+  </si>
 </sst>
 </file>
 
@@ -120,8 +132,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -274,10 +286,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -287,27 +299,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Tusenskille [0]" xfId="3" builtinId="6"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -951,13 +943,13 @@
   <dimension ref="A1:S235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M236" sqref="M236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,8 +980,14 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1023,8 +1021,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1058,8 +1062,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1093,8 +1103,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1128,8 +1144,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1163,8 +1185,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1198,8 +1226,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1233,8 +1267,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1268,8 +1308,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1303,8 +1349,14 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1338,8 +1390,14 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1373,8 +1431,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1408,8 +1472,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1443,8 +1513,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1478,8 +1554,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1513,8 +1595,14 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1548,8 +1636,14 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1583,8 +1677,14 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1618,8 +1718,14 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1653,8 +1759,14 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1688,8 +1800,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1723,8 +1841,14 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1758,8 +1882,14 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1793,8 +1923,14 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1828,8 +1964,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1863,8 +2005,14 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1898,8 +2046,14 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1933,8 +2087,14 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1968,8 +2128,14 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2003,8 +2169,14 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2038,8 +2210,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2073,8 +2251,14 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2108,8 +2292,14 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2143,8 +2333,14 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2213,8 +2415,14 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -2248,8 +2456,14 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2283,8 +2497,14 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2318,8 +2538,14 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -2353,8 +2579,14 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2388,8 +2620,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2423,8 +2661,14 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2458,8 +2702,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2493,8 +2743,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2528,8 +2784,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2563,8 +2825,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -2598,8 +2866,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2633,8 +2907,14 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -2668,8 +2948,14 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2703,8 +2989,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2738,8 +3030,14 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2773,8 +3071,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2808,8 +3112,14 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2843,8 +3153,14 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2878,8 +3194,14 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2913,8 +3235,14 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2948,8 +3276,14 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2983,8 +3317,14 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8</v>
       </c>
@@ -3018,8 +3358,14 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9</v>
       </c>
@@ -3053,8 +3399,14 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -3088,8 +3440,14 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10</v>
       </c>
@@ -3123,8 +3481,14 @@
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10</v>
       </c>
@@ -3158,8 +3522,14 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
@@ -3193,6 +3563,12 @@
       <c r="J64">
         <v>1</v>
       </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -3228,6 +3604,12 @@
       <c r="J65">
         <v>1</v>
       </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -3263,6 +3645,12 @@
       <c r="J66">
         <v>1</v>
       </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -3298,6 +3686,12 @@
       <c r="J67">
         <v>1</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -3333,6 +3727,12 @@
       <c r="J68">
         <v>1</v>
       </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -3368,6 +3768,12 @@
       <c r="J69">
         <v>1</v>
       </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -3403,6 +3809,12 @@
       <c r="J70">
         <v>1</v>
       </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -3438,6 +3850,12 @@
       <c r="J71">
         <v>1</v>
       </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -3473,6 +3891,12 @@
       <c r="J72">
         <v>1</v>
       </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -3508,6 +3932,12 @@
       <c r="J73">
         <v>1</v>
       </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -3543,6 +3973,12 @@
       <c r="J74">
         <v>1</v>
       </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -3578,6 +4014,12 @@
       <c r="J75">
         <v>1</v>
       </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -3613,8 +4055,12 @@
       <c r="J76">
         <v>1</v>
       </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
       <c r="P76" s="2"/>
@@ -3656,8 +4102,12 @@
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
       <c r="P77" s="2"/>
@@ -3699,8 +4149,12 @@
       <c r="J78">
         <v>1</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
       <c r="P78" s="2"/>
@@ -3742,8 +4196,12 @@
       <c r="J79">
         <v>1</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -3779,8 +4237,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -3816,8 +4278,12 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -3853,6 +4319,12 @@
       <c r="J82">
         <v>0</v>
       </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -3888,6 +4360,12 @@
       <c r="J83">
         <v>0</v>
       </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -3923,6 +4401,12 @@
       <c r="J84">
         <v>0</v>
       </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -3958,6 +4442,12 @@
       <c r="J85">
         <v>0</v>
       </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -3993,6 +4483,12 @@
       <c r="J86">
         <v>0</v>
       </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -4028,6 +4524,12 @@
       <c r="J87">
         <v>0</v>
       </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -4062,6 +4564,12 @@
       </c>
       <c r="J88">
         <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4096,6 +4604,12 @@
       <c r="J89">
         <v>0</v>
       </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -4130,6 +4644,12 @@
       </c>
       <c r="J90">
         <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4164,6 +4684,12 @@
       <c r="J91">
         <v>0</v>
       </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -4199,6 +4725,12 @@
       <c r="J92">
         <v>0</v>
       </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -4234,6 +4766,12 @@
       <c r="J93">
         <v>0</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -4269,6 +4807,12 @@
       <c r="J94">
         <v>0</v>
       </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -4304,6 +4848,12 @@
       <c r="J95">
         <v>0</v>
       </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -4339,8 +4889,14 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4374,8 +4930,14 @@
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9</v>
       </c>
@@ -4409,8 +4971,14 @@
       <c r="J98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10</v>
       </c>
@@ -4444,8 +5012,14 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4479,8 +5053,14 @@
       <c r="J100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4514,8 +5094,14 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4549,8 +5135,14 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4584,8 +5176,14 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5</v>
       </c>
@@ -4619,8 +5217,14 @@
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6</v>
       </c>
@@ -4654,8 +5258,14 @@
       <c r="J105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7</v>
       </c>
@@ -4689,8 +5299,14 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -4724,8 +5340,14 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
@@ -4759,8 +5381,14 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -4794,8 +5422,14 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4829,8 +5463,14 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2</v>
       </c>
@@ -4864,8 +5504,14 @@
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4899,8 +5545,14 @@
       <c r="J112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4934,8 +5586,14 @@
       <c r="J113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4969,8 +5627,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6</v>
       </c>
@@ -5004,8 +5668,14 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7</v>
       </c>
@@ -5039,8 +5709,14 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -5074,8 +5750,14 @@
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -5109,8 +5791,14 @@
       <c r="J118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -5144,8 +5832,14 @@
       <c r="J119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -5179,8 +5873,14 @@
       <c r="J120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5214,8 +5914,14 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -5249,8 +5955,14 @@
       <c r="J122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4</v>
       </c>
@@ -5284,8 +5996,14 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5</v>
       </c>
@@ -5319,8 +6037,14 @@
       <c r="J124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -5354,8 +6078,14 @@
       <c r="J125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7</v>
       </c>
@@ -5389,8 +6119,14 @@
       <c r="J126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8</v>
       </c>
@@ -5424,8 +6160,14 @@
       <c r="J127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>9</v>
       </c>
@@ -5459,8 +6201,14 @@
       <c r="J128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10</v>
       </c>
@@ -5494,8 +6242,14 @@
       <c r="J129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -5529,8 +6283,14 @@
       <c r="J130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -5564,8 +6324,14 @@
       <c r="J131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
@@ -5599,8 +6365,14 @@
       <c r="J132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4</v>
       </c>
@@ -5634,8 +6406,14 @@
       <c r="J133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5</v>
       </c>
@@ -5669,8 +6447,14 @@
       <c r="J134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6</v>
       </c>
@@ -5704,8 +6488,14 @@
       <c r="J135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -5739,8 +6529,14 @@
       <c r="J136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -5774,8 +6570,14 @@
       <c r="J137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9</v>
       </c>
@@ -5809,8 +6611,14 @@
       <c r="J138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10</v>
       </c>
@@ -5844,8 +6652,14 @@
       <c r="J139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -5879,8 +6693,14 @@
       <c r="J140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -5914,8 +6734,14 @@
       <c r="J141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10</v>
       </c>
@@ -5949,8 +6775,14 @@
       <c r="J142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10</v>
       </c>
@@ -5984,8 +6816,14 @@
       <c r="J143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10</v>
       </c>
@@ -6019,8 +6857,14 @@
       <c r="J144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10</v>
       </c>
@@ -6054,8 +6898,14 @@
       <c r="J145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10</v>
       </c>
@@ -6089,8 +6939,14 @@
       <c r="J146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10</v>
       </c>
@@ -6124,8 +6980,14 @@
       <c r="J147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10</v>
       </c>
@@ -6159,8 +7021,14 @@
       <c r="J148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10</v>
       </c>
@@ -6194,8 +7062,14 @@
       <c r="J149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10</v>
       </c>
@@ -6229,8 +7103,14 @@
       <c r="J150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -6264,8 +7144,14 @@
       <c r="J151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10</v>
       </c>
@@ -6299,8 +7185,14 @@
       <c r="J152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10</v>
       </c>
@@ -6334,8 +7226,14 @@
       <c r="J153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -6369,8 +7267,14 @@
       <c r="J154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10</v>
       </c>
@@ -6404,8 +7308,14 @@
       <c r="J155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10</v>
       </c>
@@ -6439,8 +7349,14 @@
       <c r="J156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10</v>
       </c>
@@ -6474,8 +7390,14 @@
       <c r="J157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -6509,8 +7431,14 @@
       <c r="J158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2</v>
       </c>
@@ -6544,8 +7472,14 @@
       <c r="J159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3</v>
       </c>
@@ -6579,8 +7513,14 @@
       <c r="J160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4</v>
       </c>
@@ -6614,8 +7554,14 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>5</v>
       </c>
@@ -6649,8 +7595,14 @@
       <c r="J162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6</v>
       </c>
@@ -6684,8 +7636,14 @@
       <c r="J163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7</v>
       </c>
@@ -6719,8 +7677,14 @@
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>8</v>
       </c>
@@ -6754,8 +7718,14 @@
       <c r="J165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>9</v>
       </c>
@@ -6789,8 +7759,14 @@
       <c r="J166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10</v>
       </c>
@@ -6824,8 +7800,14 @@
       <c r="J167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6859,8 +7841,14 @@
       <c r="J168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2</v>
       </c>
@@ -6894,8 +7882,14 @@
       <c r="J169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3</v>
       </c>
@@ -6929,8 +7923,14 @@
       <c r="J170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4</v>
       </c>
@@ -6964,8 +7964,14 @@
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5</v>
       </c>
@@ -6999,8 +8005,14 @@
       <c r="J172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -7034,8 +8046,14 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -7069,8 +8087,14 @@
       <c r="J174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>8</v>
       </c>
@@ -7104,8 +8128,14 @@
       <c r="J175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>9</v>
       </c>
@@ -7139,8 +8169,14 @@
       <c r="J176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10</v>
       </c>
@@ -7174,8 +8210,14 @@
       <c r="J177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -7209,8 +8251,14 @@
       <c r="J178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -7244,8 +8292,14 @@
       <c r="J179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -7279,8 +8333,14 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4</v>
       </c>
@@ -7314,8 +8374,14 @@
       <c r="J181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5</v>
       </c>
@@ -7349,8 +8415,14 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -7384,8 +8456,14 @@
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -7419,8 +8497,14 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8</v>
       </c>
@@ -7454,8 +8538,14 @@
       <c r="J185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>9</v>
       </c>
@@ -7489,8 +8579,14 @@
       <c r="J186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10</v>
       </c>
@@ -7524,8 +8620,14 @@
       <c r="J187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -7559,8 +8661,14 @@
       <c r="J188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -7594,8 +8702,14 @@
       <c r="J189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -7629,8 +8743,14 @@
       <c r="J190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -7664,8 +8784,14 @@
       <c r="J191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5</v>
       </c>
@@ -7699,8 +8825,14 @@
       <c r="J192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -7734,8 +8866,14 @@
       <c r="J193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -7769,8 +8907,14 @@
       <c r="J194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -7804,8 +8948,14 @@
       <c r="J195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9</v>
       </c>
@@ -7839,8 +8989,14 @@
       <c r="J196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10</v>
       </c>
@@ -7874,8 +9030,14 @@
       <c r="J197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -7909,8 +9071,14 @@
       <c r="J198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2</v>
       </c>
@@ -7944,8 +9112,14 @@
       <c r="J199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3</v>
       </c>
@@ -7979,8 +9153,14 @@
       <c r="J200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4</v>
       </c>
@@ -8014,8 +9194,14 @@
       <c r="J201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5</v>
       </c>
@@ -8049,8 +9235,14 @@
       <c r="J202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>6</v>
       </c>
@@ -8084,8 +9276,14 @@
       <c r="J203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>7</v>
       </c>
@@ -8119,8 +9317,14 @@
       <c r="J204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -8154,8 +9358,14 @@
       <c r="J205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>9</v>
       </c>
@@ -8189,8 +9399,14 @@
       <c r="J206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>10</v>
       </c>
@@ -8224,8 +9440,14 @@
       <c r="J207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -8256,8 +9478,14 @@
       <c r="J208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2</v>
       </c>
@@ -8291,8 +9519,14 @@
       <c r="J209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -8326,8 +9560,14 @@
       <c r="J210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4</v>
       </c>
@@ -8361,8 +9601,14 @@
       <c r="J211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>5</v>
       </c>
@@ -8396,8 +9642,14 @@
       <c r="J212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -8431,8 +9683,14 @@
       <c r="J213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -8466,8 +9724,14 @@
       <c r="J214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
@@ -8501,8 +9765,14 @@
       <c r="J215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>9</v>
       </c>
@@ -8536,8 +9806,14 @@
       <c r="J216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>10</v>
       </c>
@@ -8571,8 +9847,14 @@
       <c r="J217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>10</v>
       </c>
@@ -8606,8 +9888,14 @@
       <c r="J218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>10</v>
       </c>
@@ -8641,8 +9929,14 @@
       <c r="J219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -8676,8 +9970,14 @@
       <c r="J220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -8711,8 +10011,14 @@
       <c r="J221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>10</v>
       </c>
@@ -8746,8 +10052,14 @@
       <c r="J222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -8781,8 +10093,14 @@
       <c r="J223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -8816,8 +10134,14 @@
       <c r="J224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>10</v>
       </c>
@@ -8851,8 +10175,14 @@
       <c r="J225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>10</v>
       </c>
@@ -8886,8 +10216,14 @@
       <c r="J226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10</v>
       </c>
@@ -8921,8 +10257,14 @@
       <c r="J227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10</v>
       </c>
@@ -8956,8 +10298,14 @@
       <c r="J228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>10</v>
       </c>
@@ -8991,8 +10339,14 @@
       <c r="J229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>10</v>
       </c>
@@ -9026,8 +10380,14 @@
       <c r="J230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10</v>
       </c>
@@ -9061,8 +10421,14 @@
       <c r="J231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10</v>
       </c>
@@ -9096,8 +10462,14 @@
       <c r="J232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -9131,8 +10503,14 @@
       <c r="J233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10</v>
       </c>
@@ -9166,8 +10544,14 @@
       <c r="J234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10</v>
       </c>
@@ -9201,165 +10585,171 @@
       <c r="J235">
         <v>1</v>
       </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B11 A52:B79 C80:C139">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C21">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C31">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C41">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C51">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C61">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B21">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B31">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B41">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B51">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A89 A130:A157">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A99">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A109">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:A119">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A129">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:A167 A208:A235">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:A177">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178:A187">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:A197">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:A207">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B89 B130:B157">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B99">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B109">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B119">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B129">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B167 B208:B235">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B177">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B187">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B188:B197">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B207">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9419,7 +10809,7 @@
         <v>0.40407857604972774</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D2:D11" si="0">(B3-C3)*0.05/0.0001</f>
+        <f t="shared" ref="D3:D11" si="0">(B3-C3)*0.05/0.0001</f>
         <v>212356.70131347887</v>
       </c>
     </row>
